--- a/kvision/ksample/mytable/docmind/003_b91f8.xlsx
+++ b/kvision/ksample/mytable/docmind/003_b91f8.xlsx
@@ -39,7 +39,7 @@
       <patternFill patternType="darkGray"/>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -129,11 +129,25 @@
         <color rgb="00FF0000"/>
       </bottom>
     </border>
+    <border>
+      <left style="thick">
+        <color rgb="00000000"/>
+      </left>
+      <right style="thick">
+        <color rgb="00000000"/>
+      </right>
+      <top style="thick">
+        <color rgb="00000000"/>
+      </top>
+      <bottom style="thick">
+        <color rgb="00000000"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center" wrapText="1"/>
@@ -142,6 +156,9 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -566,7 +583,7 @@
   </cols>
   <sheetData>
     <row r="1" ht="774.35" customHeight="1">
-      <c r="A1" s="3" t="n"/>
+      <c r="A1" s="4" t="n"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/kvision/ksample/mytable/docmind/003_b91f8.xlsx
+++ b/kvision/ksample/mytable/docmind/003_b91f8.xlsx
@@ -39,7 +39,7 @@
       <patternFill patternType="darkGray"/>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -143,11 +143,25 @@
         <color rgb="00000000"/>
       </bottom>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="00101010"/>
+      </left>
+      <right style="thin">
+        <color rgb="00101010"/>
+      </right>
+      <top style="thin">
+        <color rgb="00101010"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="00101010"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center" wrapText="1"/>
@@ -159,6 +173,9 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -583,7 +600,7 @@
   </cols>
   <sheetData>
     <row r="1" ht="774.35" customHeight="1">
-      <c r="A1" s="4" t="n"/>
+      <c r="A1" s="5" t="n"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
